--- a/PRODUCT BACKLOG.xlsx
+++ b/PRODUCT BACKLOG.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="22890" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="3330" yWindow="0" windowWidth="22890" windowHeight="10320" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>STT</t>
   </si>
@@ -167,9 +168,6 @@
     <t>Cập nhật CSDL</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Nga, Thư, Sopheak</t>
   </si>
   <si>
@@ -192,6 +190,36 @@
   </si>
   <si>
     <t>Sopheak</t>
+  </si>
+  <si>
+    <t>Quản lí  thông tin Sinh viên</t>
+  </si>
+  <si>
+    <t>Quản lí  thông tin Môn học</t>
+  </si>
+  <si>
+    <t>Quản lí Bộ môn</t>
+  </si>
+  <si>
+    <t>Quản lí năm học</t>
+  </si>
+  <si>
+    <t>sopheak</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>thư</t>
+  </si>
+  <si>
+    <t>Quản lí Khoa học</t>
+  </si>
+  <si>
+    <t>SPRINT #3</t>
+  </si>
+  <si>
+    <t>Quản lí Llớp Quản lý</t>
   </si>
 </sst>
 </file>
@@ -284,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,6 +323,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,8 +335,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,11 +669,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -813,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,89 +861,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="B5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
